--- a/data/WOF_meta.xlsx
+++ b/data/WOF_meta.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pth7\Documents\Intercrop JLJ\2025_winter\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2175A17F-152E-4F5D-A608-0D26566D1D8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AF9F21E-03B9-4839-BF7D-AB1A6513BDDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1860" windowWidth="25785" windowHeight="18135" xr2:uid="{8490C5E2-A5E7-44F0-A1FA-8219381ADEA9}"/>
+    <workbookView xWindow="2772" yWindow="17172" windowWidth="23256" windowHeight="12576" xr2:uid="{8490C5E2-A5E7-44F0-A1FA-8219381ADEA9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/data/WOF_meta.xlsx
+++ b/data/WOF_meta.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pth7\Documents\Intercrop JLJ\2025_winter\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D09A6B3-6410-492C-A50A-312199A9859F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11969B5E-F029-4ED5-A8B3-954E550AD305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1470" windowWidth="29175" windowHeight="19215" xr2:uid="{8490C5E2-A5E7-44F0-A1FA-8219381ADEA9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{8490C5E2-A5E7-44F0-A1FA-8219381ADEA9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2893,7 +2893,7 @@
   <dimension ref="A1:DV97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2904,6 +2904,7 @@
     <col min="5" max="5" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="51.28515625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="52.42578125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="46.28515625" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="27.28515625" bestFit="1" customWidth="1"/>

--- a/data/WOF_meta.xlsx
+++ b/data/WOF_meta.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pth7\Documents\Intercrop JLJ\2025_winter\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11969B5E-F029-4ED5-A8B3-954E550AD305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B26B2917-F63D-4045-89D2-546C9377763C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{8490C5E2-A5E7-44F0-A1FA-8219381ADEA9}"/>
+    <workbookView xWindow="4185" yWindow="0" windowWidth="23895" windowHeight="15450" xr2:uid="{8490C5E2-A5E7-44F0-A1FA-8219381ADEA9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2892,8 +2892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{879D3633-6496-4A73-A6D0-00B2EC483D72}">
   <dimension ref="A1:DV97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:XFD43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2904,11 +2904,13 @@
     <col min="5" max="5" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.42578125" customWidth="1"/>
     <col min="19" max="19" width="51.28515625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="52.42578125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="46.28515625" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="46.28515625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="25.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:126" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
